--- a/webtool/sql/test.xlsx
+++ b/webtool/sql/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA716BAB-6A17-4141-B520-F2F7CDD23357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3934B-A82A-4AAD-875A-D25AC9E7114D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,16 +34,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,10 +400,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -440,12 +436,9 @@
       <c r="D3" s="1">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
